--- a/data/llm_cfs_report_questions_50.xlsx
+++ b/data/llm_cfs_report_questions_50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JackWu/git_project/crc-streamlit-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD629D88-1960-E247-B0FF-0DD68C88018C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1970C3-1DAA-2947-936D-9AD4482D81EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="620" windowWidth="38400" windowHeight="20980" xr2:uid="{6CBA2F91-21DC-2F40-AEAC-6FED94901F29}"/>
   </bookViews>
@@ -26393,543 +26393,6 @@
   </si>
   <si>
     <t>P0199</t>
-  </si>
-  <si>
-    <r>
-      <t>國</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>立</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>臺</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>灣</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>大</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>學</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>醫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>學</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>附</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>設</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>醫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>病歷號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">:[REDACTED]National Taiwan University  Hospital     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>大腸鏡檢查過程記錄暨報告</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>姓名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>:[REDACTED] (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>內視鏡中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>生　日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  19400921  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>頁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查單號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">:[REDACTED]   73   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>保險身分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查日期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    20121218   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>性別</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">:[REDACTED]    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>流水序號</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">     C019472 Examintion time Start time 141550End time 143149 Clinical Diagnosis     Colon polyp Indication     Colon polyp Colon preparation     Niflec Condition     Good Instrument     CF-Q260AI    .1 Insertion level     Cecum Pre-medication     Buscopan Anesthesia     Nil Cleansing time     Morning Medication history     Nil Colonoscopic Findings     Up to cecum, one 0.6cm 0-IIa lesion was noted at T colon and biopsy with     removal was done. External hemorrhoid was noted.  Endoscopic Diagnosis     Tubular adenoma,0-IIa,0.6cm,T colon s/p biopsy with removal    External hemorrhoid Complication     Negative Suggestion     Nil Specimens     One bottle  Assistant   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>邱彩招</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Examiner    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>周莒光醫師</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>董建志醫師</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang TC"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>張毓廷醫師</t>
-    </r>
   </si>
   <si>
     <r>
@@ -34520,12 +33983,549 @@
       <t xml:space="preserve"> Specimens    5    bottle(s) Complication    NIL Suggestion    助理 葉佳惠護理師 檢查者/ / 邱瀚模主治醫師</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>國</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>臺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>灣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>醫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>附</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>設</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>醫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>病歷號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:[REDACTED]National Taiwan University  Hospital     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大腸鏡檢查過程記錄暨報告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>姓名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>:[REDACTED] (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>內視鏡中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>生　日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  19400921  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>頁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查單號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:[REDACTED]   73   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>保險身分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    20121218   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>性別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:[REDACTED]    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>流水序號</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">     C019472 Examintion time Start time 141550End time 143149 Clinical Diagnosis     Colon polyp Indication     Colon polyp Colon preparation     Niflec Condition     Good Instrument     CF-Q260AI    .1 Insertion level     Cecum Pre-medication     Buscopan Anesthesia     Nil Cleansing time     Morning Medication history     Nil Colonoscopic Findings     Up to cecum, one 0.6cm 0-IIa lesion was noted at T colon and biopsy with     removal was done. External hemorrhoid was noted.  Endoscopic Diagnosis     Tubular adenoma,0-IIa,0.6cm,T colon s/p biopsy with removal    External hemorrhoid Complication     Negative Suggestion     Nil Specimens     One bottle  Assistant   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>邱彩招</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Examiner    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>周莒光醫師</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>董建志醫師</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="PingFang TC"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>張毓廷醫師</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -34567,7 +34567,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -34577,6 +34577,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -34593,7 +34599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -34621,6 +34627,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -34939,18 +34964,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49916D18-5A43-4849-AEA9-6BB3DABC5BE3}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="158" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="54.1640625" customWidth="1"/>
     <col min="3" max="3" width="55.33203125" customWidth="1"/>
     <col min="4" max="4" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34">
+    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -34967,7 +34992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -34975,16 +35000,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="404">
+    <row r="3" spans="1:5" ht="404" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -34992,16 +35017,16 @@
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -35009,16 +35034,16 @@
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="379">
+    <row r="5" spans="1:5" ht="379" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -35026,16 +35051,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="323">
+    <row r="6" spans="1:5" ht="323" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -35043,16 +35068,16 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="404">
+    <row r="7" spans="1:5" ht="404" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -35060,16 +35085,16 @@
         <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="375">
+    <row r="8" spans="1:5" ht="375" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -35077,16 +35102,16 @@
         <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="356">
+    <row r="9" spans="1:5" ht="356" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -35094,16 +35119,16 @@
         <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="323">
+    <row r="10" spans="1:5" ht="323" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -35111,16 +35136,16 @@
         <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="409.6">
+    <row r="11" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -35128,16 +35153,16 @@
         <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="323">
+    <row r="12" spans="1:5" ht="323" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -35145,16 +35170,16 @@
         <v>25</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="365">
+    <row r="13" spans="1:5" ht="365" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -35162,16 +35187,16 @@
         <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="306">
+    <row r="14" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
@@ -35179,16 +35204,16 @@
         <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="323">
+    <row r="15" spans="1:5" ht="323" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -35196,16 +35221,16 @@
         <v>30</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="323">
+    <row r="16" spans="1:5" ht="323" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -35213,16 +35238,16 @@
         <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="372">
+    <row r="17" spans="1:5" ht="372" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -35230,16 +35255,16 @@
         <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="340">
+    <row r="18" spans="1:5" ht="340" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -35247,16 +35272,16 @@
         <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="409.6">
+    <row r="19" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -35264,33 +35289,33 @@
         <v>38</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="16" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>192</v>
+      <c r="E20" s="15" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="409.6">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="306">
+    <row r="21" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -35298,16 +35323,16 @@
         <v>42</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="9" customFormat="1" ht="340">
+    <row r="22" spans="1:5" s="9" customFormat="1" ht="340" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
@@ -35315,16 +35340,16 @@
         <v>44</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="9" customFormat="1" ht="306">
+    <row r="23" spans="1:5" s="9" customFormat="1" ht="306" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>43</v>
       </c>
@@ -35332,16 +35357,16 @@
         <v>45</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="409.6">
+    <row r="24" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -35349,16 +35374,16 @@
         <v>47</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="9" customFormat="1" ht="340">
+    <row r="25" spans="1:5" s="9" customFormat="1" ht="340" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>48</v>
       </c>
@@ -35366,16 +35391,16 @@
         <v>49</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="9" customFormat="1" ht="352">
+    <row r="26" spans="1:5" s="9" customFormat="1" ht="352" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>50</v>
       </c>
@@ -35383,16 +35408,16 @@
         <v>51</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="306">
+    <row r="27" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -35400,16 +35425,16 @@
         <v>53</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="306">
+    <row r="28" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -35417,16 +35442,16 @@
         <v>55</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="409.6">
+    <row r="29" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -35434,16 +35459,16 @@
         <v>57</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="404">
+    <row r="30" spans="1:5" ht="404" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -35451,16 +35476,16 @@
         <v>59</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="9" customFormat="1" ht="352">
+    <row r="31" spans="1:5" s="9" customFormat="1" ht="352" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
@@ -35468,16 +35493,16 @@
         <v>61</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="9" customFormat="1" ht="388">
+    <row r="32" spans="1:5" s="9" customFormat="1" ht="388" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>62</v>
       </c>
@@ -35485,16 +35510,16 @@
         <v>63</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="9" customFormat="1" ht="372">
+    <row r="33" spans="1:5" s="9" customFormat="1" ht="372" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>62</v>
       </c>
@@ -35502,16 +35527,16 @@
         <v>64</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="9" customFormat="1" ht="339">
+    <row r="34" spans="1:5" s="9" customFormat="1" ht="339" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>65</v>
       </c>
@@ -35519,16 +35544,16 @@
         <v>66</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="306">
+    <row r="35" spans="1:5" ht="306" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
@@ -35536,16 +35561,16 @@
         <v>68</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="404">
+    <row r="36" spans="1:5" ht="404" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -35553,16 +35578,16 @@
         <v>70</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="365">
+    <row r="37" spans="1:5" ht="349" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -35570,16 +35595,16 @@
         <v>72</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="409.6">
+    <row r="38" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
@@ -35587,16 +35612,16 @@
         <v>74</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="362">
+    <row r="39" spans="1:5" ht="365" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>75</v>
       </c>
@@ -35604,217 +35629,217 @@
         <v>76</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="372">
-      <c r="A40" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="9" customFormat="1" ht="379">
+    <row r="40" spans="1:5" s="16" customFormat="1" ht="372" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="9" customFormat="1" ht="379" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="9" customFormat="1" ht="323" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="B42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D42" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>193</v>
+      <c r="E42" s="7" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="9" customFormat="1" ht="326">
-      <c r="A42" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    <row r="43" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>202</v>
+      <c r="B43" s="3" t="s">
+        <v>82</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="C43" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E43" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="409.6">
-      <c r="A43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="3" t="s">
+    <row r="44" spans="1:5" ht="365" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="B44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E44" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="9" customFormat="1" ht="326" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="362">
-      <c r="A44" s="2" t="s">
-        <v>84</v>
+    <row r="47" spans="1:5" s="9" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>86</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>85</v>
+      <c r="B47" s="6" t="s">
+        <v>204</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>134</v>
+      <c r="C47" s="7" t="s">
+        <v>135</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>183</v>
+      <c r="D47" s="8" t="s">
+        <v>185</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>195</v>
+      <c r="E47" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="9" customFormat="1" ht="329">
-      <c r="A45" s="5" t="s">
-        <v>86</v>
+    <row r="48" spans="1:5" ht="356" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>87</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>203</v>
+      <c r="B48" s="3" t="s">
+        <v>88</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>135</v>
+      <c r="C48" s="4" t="s">
+        <v>137</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>184</v>
+      <c r="D48" s="1" t="s">
+        <v>186</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E48" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="362" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="372" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="409.6">
-      <c r="A46" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="9" customFormat="1" ht="409.6">
-      <c r="A47" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="356">
-      <c r="A48" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="362">
-      <c r="A49" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="372">
-      <c r="A50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="3" t="s">
+    <row r="51" spans="1:5" s="9" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="B51" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="9" customFormat="1" ht="409.6">
-      <c r="A51" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>190</v>
-      </c>
       <c r="E51" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
